--- a/src/predicciones/holt_winters/producto_165.xlsx
+++ b/src/predicciones/holt_winters/producto_165.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,751 +404,1015 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.3744241354889</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.141093508945431</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.382948090827974</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44933</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.143888108759563</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44935</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.589705423333314</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44936</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.84008029945465</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44943</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.577176401600233</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44951</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.391894408014575</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44953</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.158563781471107</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44962</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.400418363353649</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44963</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.161358381285238</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44970</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.607175695858989</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44972</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.857550571980326</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44991</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.594646674125909</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44995</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.40936468054025</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44996</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.176034053996782</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44997</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.417888635879325</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44998</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.178828653810914</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45001</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.624645968384665</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45014</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.875020844506001</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45028</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.612116946651584</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45031</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.426834953065926</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45035</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1.193504326522458</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45052</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.435358908405</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45065</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1.196298926336589</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45071</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.64211624091034</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45072</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1.892491117031676</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45083</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1.62958721917726</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45084</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.444305225591601</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45086</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>1.210974599048133</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45089</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>1.452829180930675</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45092</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>1.213769198862265</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45100</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>1.659586513436015</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45104</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>1.909961389557352</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45116</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>1.647057491702935</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45122</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>1.461775498117277</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45124</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>1.228444871573809</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45131</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>1.470299453456351</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45137</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>1.23123947138794</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45138</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1.677056785961691</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45140</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>1.927431662083027</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45144</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>1.66452776422861</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45152</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>1.479245770642952</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45156</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>1.245915144099484</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45157</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>1.487769725982026</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45164</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>1.248709743913615</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45165</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>1.694527058487366</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45169</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>1.944901934608703</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45172</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>1.681998036754286</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45176</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>1.496716043168628</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45177</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>1.263385416625159</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45178</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>1.505239998507702</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45179</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>1.266180016439291</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45183</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>1.711997331013042</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45184</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>1.962372207134378</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45191</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>1.699468309279961</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45193</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>1.514186315694303</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45197</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>1.280855689150835</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45198</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>1.522710271033377</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45199</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>1.283650288964966</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45201</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>1.729467603538717</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45204</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>1.979842479660054</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45209</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>1.716938581805637</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45214</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>1.531656588219979</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45220</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>1.29832596167651</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45221</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>1.540180543559053</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45222</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>1.301120561490642</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45225</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>1.746937876064393</v>
       </c>
       <c r="C69">
         <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B70">
+        <v>1.997312752185729</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B71">
+        <v>1.734408854331312</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B72">
+        <v>1.549126860745654</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B73">
+        <v>1.315796234202186</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B74">
+        <v>1.557650816084728</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B75">
+        <v>1.318590834016317</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B76">
+        <v>1.764408148590068</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B77">
+        <v>2.014783024711404</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B78">
+        <v>1.751879126856988</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B79">
+        <v>1.566597133271329</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B80">
+        <v>1.333266506727861</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B81">
+        <v>1.575121088610403</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B82">
+        <v>1.336061106541993</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B83">
+        <v>1.781878421115743</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B84">
+        <v>2.03225329723708</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B85">
+        <v>1.769349399382663</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B86">
+        <v>1.584067405797005</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B87">
+        <v>1.350736779253537</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B88">
+        <v>1.592591361136079</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B89">
+        <v>1.353531379067668</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B90">
+        <v>1.799348693641419</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B91">
+        <v>2.049723569762755</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B92">
+        <v>1.786819671908338</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B93">
+        <v>1.60153767832268</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
